--- a/facebookproject-sprint2/Test_data/facebook_data.xlsx
+++ b/facebookproject-sprint2/Test_data/facebook_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreen\variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreen\PycharmProjects\facebookproject-sprint2\Test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140C8C28-1B03-4A56-9B6A-13306E976E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08106008-F129-49BA-A04B-A93B95C1D456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9924" xr2:uid="{E8A3B9F6-A8EC-464A-B49E-EF6D2E9BC84F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8A3B9F6-A8EC-464A-B49E-EF6D2E9BC84F}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>f_name</t>
   </si>
@@ -52,18 +52,6 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>varalakshmi</t>
   </si>
   <si>
@@ -76,10 +64,16 @@
     <t>VaraLak@410</t>
   </si>
   <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <t>lakshmi</t>
+  </si>
+  <si>
+    <t>sree</t>
+  </si>
+  <si>
+    <t>dandevaralakshmi@gmail.com</t>
+  </si>
+  <si>
+    <t>madhu</t>
   </si>
   <si>
     <t>thanu</t>
@@ -88,52 +82,37 @@
     <t>karidi</t>
   </si>
   <si>
-    <t>thanu111@gmail.com</t>
-  </si>
-  <si>
-    <t>ThaNu@k111</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>vara Lakshmi</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>123varalakshmi</t>
+    <t>thanu@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanu</t>
+  </si>
+  <si>
+    <t>madhu sree</t>
+  </si>
+  <si>
+    <t>shetty</t>
+  </si>
+  <si>
+    <t>madhu@gmail</t>
+  </si>
+  <si>
+    <t>Madhu@111</t>
+  </si>
+  <si>
+    <t>harini</t>
   </si>
   <si>
     <t>sri</t>
   </si>
   <si>
-    <t>dandevaralakshmi@gmail</t>
-  </si>
-  <si>
-    <t>lakshmi</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>madhu</t>
-  </si>
-  <si>
-    <t>madhu@gmail.com</t>
-  </si>
-  <si>
-    <t>madhu145@gmail.com</t>
-  </si>
-  <si>
-    <t>432$madhu</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Male</t>
+    <t>harini@gmail.com</t>
+  </si>
+  <si>
+    <t>harini111@gmail.com</t>
+  </si>
+  <si>
+    <t>harini123</t>
   </si>
 </sst>
 </file>
@@ -503,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD056C3-664C-45C3-83D2-D9E1AB7ED2ED}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +496,7 @@
     <col min="6" max="6" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,171 +512,102 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>2000</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>2020</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>2001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>2008</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>123</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>2003</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{7FF6A5F5-231F-4EDD-BB2C-F5A2D885FA11}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{96DE177C-53C1-4049-A30E-0F0330BECD6E}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{94190351-2D26-4892-AB2B-F1BC661631B2}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{E223A5A9-5E74-45FD-9570-84CF5276E795}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{5DB2FA5C-18B0-4BD4-906F-5AF8CEDB89DF}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{42E68201-43EF-4792-8EAE-4A763F946999}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{10BD5999-3150-4296-AFBE-F59C362EE2F1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A4111919-F2E1-47F6-88B9-EE56DF861C2F}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{5F802139-2C88-424B-BC23-F0AAE4A02CDD}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{0E5D3ED5-18A6-4F49-8184-2E94DA98FF80}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{582CE8AC-272F-431F-A93A-285F59B19037}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{B3F81AAD-3A0E-47B3-8354-5A84DDDB1F22}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{38A1A712-C2F1-4734-8510-6017C4B9B2DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
